--- a/Code/Results/Cases/Case_2_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_183/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9726893492872766</v>
+        <v>1.016449202858267</v>
       </c>
       <c r="D2">
-        <v>0.9966672733715548</v>
+        <v>1.022531173563231</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9480341024379725</v>
+        <v>1.014794091505186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034826946686815</v>
+        <v>1.026666337893759</v>
       </c>
       <c r="J2">
-        <v>0.9957187729923701</v>
+        <v>1.021668949432451</v>
       </c>
       <c r="K2">
-        <v>1.00817323447164</v>
+        <v>1.025365280519094</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9602682360367558</v>
+        <v>1.017651177085586</v>
       </c>
       <c r="N2">
-        <v>1.002286499320358</v>
+        <v>1.011270085431978</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9801824191503553</v>
+        <v>1.017842430221044</v>
       </c>
       <c r="D3">
-        <v>1.002371093480205</v>
+        <v>1.02358355699787</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9585121361496389</v>
+        <v>1.01683739800815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037214151840488</v>
+        <v>1.026983458838593</v>
       </c>
       <c r="J3">
-        <v>1.001228308072804</v>
+        <v>1.02269529810395</v>
       </c>
       <c r="K3">
-        <v>1.012973725356515</v>
+        <v>1.026223678847742</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9697049051596494</v>
+        <v>1.019496072775336</v>
       </c>
       <c r="N3">
-        <v>1.004152152599931</v>
+        <v>1.01161381095242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9848581247670856</v>
+        <v>1.018741182803464</v>
       </c>
       <c r="D4">
-        <v>1.005930339720297</v>
+        <v>1.024261804396752</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9650376179183797</v>
+        <v>1.018156249193296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038684820005582</v>
+        <v>1.027185667392901</v>
       </c>
       <c r="J4">
-        <v>1.004657255572432</v>
+        <v>1.023356301799418</v>
       </c>
       <c r="K4">
-        <v>1.01595771384117</v>
+        <v>1.026775820780073</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9755771638426756</v>
+        <v>1.020686192550293</v>
       </c>
       <c r="N4">
-        <v>1.00531279652478</v>
+        <v>1.011835046414615</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9867850724292876</v>
+        <v>1.019118367943862</v>
       </c>
       <c r="D5">
-        <v>1.007397049583208</v>
+        <v>1.024546296128732</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9677244616855752</v>
+        <v>1.018709923295942</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039286282003115</v>
+        <v>1.02726996278961</v>
       </c>
       <c r="J5">
-        <v>1.006068206156197</v>
+        <v>1.023633450367238</v>
       </c>
       <c r="K5">
-        <v>1.017184629475191</v>
+        <v>1.027007157574632</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9779938564748356</v>
+        <v>1.021185663153862</v>
       </c>
       <c r="N5">
-        <v>1.005790254831256</v>
+        <v>1.01192777442281</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9871064169170808</v>
+        <v>1.01918166113436</v>
       </c>
       <c r="D6">
-        <v>1.007641632241726</v>
+        <v>1.024594025996272</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9681724035762654</v>
+        <v>1.018802842989918</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039386309301693</v>
+        <v>1.027284074620113</v>
       </c>
       <c r="J6">
-        <v>1.006303372088369</v>
+        <v>1.023679941814261</v>
       </c>
       <c r="K6">
-        <v>1.017389064786654</v>
+        <v>1.027045954262631</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.978396687946032</v>
+        <v>1.021269476813427</v>
       </c>
       <c r="N6">
-        <v>1.005869826014028</v>
+        <v>1.011943327555966</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9848840215741992</v>
+        <v>1.018746225313369</v>
       </c>
       <c r="D7">
-        <v>1.005950051917677</v>
+        <v>1.024265608309705</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9650737360193307</v>
+        <v>1.018163650418267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03869292167452</v>
+        <v>1.027186796550778</v>
       </c>
       <c r="J7">
-        <v>1.004676226428137</v>
+        <v>1.023360007960124</v>
       </c>
       <c r="K7">
-        <v>1.015974214079997</v>
+        <v>1.026778914985484</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9756096552099502</v>
+        <v>1.020692869841063</v>
       </c>
       <c r="N7">
-        <v>1.005319216677712</v>
+        <v>1.011836286545376</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9752591378421428</v>
+        <v>1.016920627817269</v>
       </c>
       <c r="D8">
-        <v>0.9986233354008593</v>
+        <v>1.022887397590317</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9516307537665044</v>
+        <v>1.015485333011178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035649619508433</v>
+        <v>1.026774131125558</v>
       </c>
       <c r="J8">
-        <v>0.9976101993439958</v>
+        <v>1.022016457938381</v>
       </c>
       <c r="K8">
-        <v>1.009821986831466</v>
+        <v>1.025656067103517</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9635083840240792</v>
+        <v>1.018275435294629</v>
       </c>
       <c r="N8">
-        <v>1.002927072390716</v>
+        <v>1.011386494565567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9568389242168911</v>
+        <v>1.0136821119093</v>
       </c>
       <c r="D9">
-        <v>0.9846086910114545</v>
+        <v>1.020437724434812</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9257609293235745</v>
+        <v>1.01073957208988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029673166636705</v>
+        <v>1.02602393928668</v>
       </c>
       <c r="J9">
-        <v>0.9840136065988568</v>
+        <v>1.019624761564318</v>
       </c>
       <c r="K9">
-        <v>0.9979565169931964</v>
+        <v>1.023651918332633</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9401854366114424</v>
+        <v>1.013986816149685</v>
       </c>
       <c r="N9">
-        <v>0.9983207523520098</v>
+        <v>1.010584763527804</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9433528732980627</v>
+        <v>1.011507954971146</v>
       </c>
       <c r="D10">
-        <v>0.9743642909105675</v>
+        <v>1.018790009931372</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9066591683574081</v>
+        <v>1.00755681684498</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025199067715937</v>
+        <v>1.025508155898012</v>
       </c>
       <c r="J10">
-        <v>0.9740093611829107</v>
+        <v>1.018013536937844</v>
       </c>
       <c r="K10">
-        <v>0.9892123636618225</v>
+        <v>1.022298246128533</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.922946384803773</v>
+        <v>1.011107215723856</v>
       </c>
       <c r="N10">
-        <v>0.9949301946529688</v>
+        <v>1.010043963417883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9371644833083179</v>
+        <v>1.01056278505421</v>
       </c>
       <c r="D11">
-        <v>0.9696701851724795</v>
+        <v>1.01807297355176</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.8978366865099334</v>
+        <v>1.006173874866675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02312399572669</v>
+        <v>1.025281062397113</v>
       </c>
       <c r="J11">
-        <v>0.9694068822823083</v>
+        <v>1.017311771460966</v>
       </c>
       <c r="K11">
-        <v>0.9851876764039819</v>
+        <v>1.021707833178488</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9149818301795736</v>
+        <v>1.009855188781436</v>
       </c>
       <c r="N11">
-        <v>0.9933703208711608</v>
+        <v>1.009808255930911</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.934806847207751</v>
+        <v>1.010211131619987</v>
       </c>
       <c r="D12">
-        <v>0.967883142721789</v>
+        <v>1.017806090337009</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.8944649001168725</v>
+        <v>1.005659444400562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022330264456262</v>
+        <v>1.02519614188865</v>
       </c>
       <c r="J12">
-        <v>0.9676516606274159</v>
+        <v>1.017050479547869</v>
       </c>
       <c r="K12">
-        <v>0.9836526491217785</v>
+        <v>1.021487879009612</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9119377681719754</v>
+        <v>1.009389335243618</v>
       </c>
       <c r="N12">
-        <v>0.9927754607678342</v>
+        <v>1.009720469383473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9353153571978475</v>
+        <v>1.010286588708866</v>
       </c>
       <c r="D13">
-        <v>0.9682685195876258</v>
+        <v>1.017863362444181</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.8951926646438598</v>
+        <v>1.005769825563486</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022501602386058</v>
+        <v>1.02521438338165</v>
       </c>
       <c r="J13">
-        <v>0.9680303186425396</v>
+        <v>1.01710655599023</v>
       </c>
       <c r="K13">
-        <v>0.9839838087227156</v>
+        <v>1.021535089400099</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9125948003305823</v>
+        <v>1.009489298749784</v>
       </c>
       <c r="N13">
-        <v>0.9929037899396592</v>
+        <v>1.009739310551623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.936970846367453</v>
+        <v>1.010533729079375</v>
       </c>
       <c r="D14">
-        <v>0.969523383937645</v>
+        <v>1.018050924047757</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.8975599836656368</v>
+        <v>1.006131367211374</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023058868581186</v>
+        <v>1.025274054446787</v>
       </c>
       <c r="J14">
-        <v>0.969262758883257</v>
+        <v>1.017290185796311</v>
       </c>
       <c r="K14">
-        <v>0.9850616357298025</v>
+        <v>1.021689664973846</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9147320236755031</v>
+        <v>1.00981669753202</v>
       </c>
       <c r="N14">
-        <v>0.9933214756076977</v>
+        <v>1.009801004266275</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9379828125841406</v>
+        <v>1.010685923815969</v>
       </c>
       <c r="D15">
-        <v>0.9702906367213703</v>
+        <v>1.018166414607523</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.8990056170593416</v>
+        <v>1.00635402558339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023399101727777</v>
+        <v>1.025310744402493</v>
       </c>
       <c r="J15">
-        <v>0.9700158900291032</v>
+        <v>1.017403243070246</v>
       </c>
       <c r="K15">
-        <v>0.985720268369213</v>
+        <v>1.021784817914008</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9160371320567722</v>
+        <v>1.010018312702417</v>
       </c>
       <c r="N15">
-        <v>0.9935767223706138</v>
+        <v>1.009838984654447</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9437556923109772</v>
+        <v>1.011570602806105</v>
       </c>
       <c r="D16">
-        <v>0.9746700054843742</v>
+        <v>1.018837521450851</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9072321112007782</v>
+        <v>1.007648495154472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025333697474828</v>
+        <v>1.025523147908403</v>
       </c>
       <c r="J16">
-        <v>0.9743087057765275</v>
+        <v>1.01806002369952</v>
       </c>
       <c r="K16">
-        <v>0.9894741000396308</v>
+        <v>1.022337339383393</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9234635794060815</v>
+        <v>1.011190198391015</v>
       </c>
       <c r="N16">
-        <v>0.9950316499243164</v>
+        <v>1.010059573873749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9472791950887455</v>
+        <v>1.012124526978125</v>
       </c>
       <c r="D17">
-        <v>0.9773449141996371</v>
+        <v>1.019257528697708</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9122371075198107</v>
+        <v>1.008459182365839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026508867243777</v>
+        <v>1.025655374942263</v>
       </c>
       <c r="J17">
-        <v>0.9769257857244144</v>
+        <v>1.018470901722414</v>
       </c>
       <c r="K17">
-        <v>0.9917621820768918</v>
+        <v>1.022682774382972</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9279813334659813</v>
+        <v>1.011923899070446</v>
       </c>
       <c r="N17">
-        <v>0.9959186412927425</v>
+        <v>1.010197529719798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9493012398013413</v>
+        <v>1.012447261032195</v>
       </c>
       <c r="D18">
-        <v>0.9788805844952833</v>
+        <v>1.01950216840775</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9151041638815497</v>
+        <v>1.008931582230535</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027181205010996</v>
+        <v>1.025732138591392</v>
       </c>
       <c r="J18">
-        <v>0.9784265606890578</v>
+        <v>1.018710165523831</v>
       </c>
       <c r="K18">
-        <v>0.9930741041674365</v>
+        <v>1.022883849904875</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9305690413998727</v>
+        <v>1.012351359778147</v>
       </c>
       <c r="N18">
-        <v>0.9964272845841547</v>
+        <v>1.010277848912811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9499852617219819</v>
+        <v>1.012557244225661</v>
       </c>
       <c r="D19">
-        <v>0.9794001704121696</v>
+        <v>1.019585526228965</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9160732126570329</v>
+        <v>1.009092581055447</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027408291657528</v>
+        <v>1.025758251693838</v>
       </c>
       <c r="J19">
-        <v>0.9789340601557625</v>
+        <v>1.018791681694611</v>
       </c>
       <c r="K19">
-        <v>0.9935177060447005</v>
+        <v>1.022952342008016</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9314436265613841</v>
+        <v>1.012497029639428</v>
       </c>
       <c r="N19">
-        <v>0.9965992848874966</v>
+        <v>1.010305210657848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9469046296420387</v>
+        <v>1.012065133539757</v>
       </c>
       <c r="D20">
-        <v>0.9770604929083588</v>
+        <v>1.019212501475963</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.911705603964485</v>
+        <v>1.008372251087716</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02638415460639</v>
+        <v>1.025641225716924</v>
       </c>
       <c r="J20">
-        <v>0.9766476917063084</v>
+        <v>1.018426859264225</v>
       </c>
       <c r="K20">
-        <v>0.9915190664375796</v>
+        <v>1.022645755031794</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.92750159582937</v>
+        <v>1.011845231241175</v>
       </c>
       <c r="N20">
-        <v>0.9958243889348284</v>
+        <v>1.010182743707503</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9364850337338531</v>
+        <v>1.010460968380866</v>
       </c>
       <c r="D21">
-        <v>0.9691550986533617</v>
+        <v>1.017995706914544</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.8968655901410275</v>
+        <v>1.006024922953528</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022895421619759</v>
+        <v>1.025256498510532</v>
       </c>
       <c r="J21">
-        <v>0.9689011413308996</v>
+        <v>1.017236128726896</v>
       </c>
       <c r="K21">
-        <v>0.9847453872367583</v>
+        <v>1.0216441642862</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9141051254751016</v>
+        <v>1.009720308879404</v>
       </c>
       <c r="N21">
-        <v>0.9931989192136088</v>
+        <v>1.009782843499347</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9295882552032499</v>
+        <v>1.009449031580144</v>
       </c>
       <c r="D22">
-        <v>0.9639303202235938</v>
+        <v>1.01722750836108</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.8869791687495147</v>
+        <v>1.004544746076026</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020567634941209</v>
+        <v>1.025011317895678</v>
       </c>
       <c r="J22">
-        <v>0.9637631836550461</v>
+        <v>1.016483848343658</v>
       </c>
       <c r="K22">
-        <v>0.9802518661515116</v>
+        <v>1.021010668344455</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9051795908483725</v>
+        <v>1.008379674897886</v>
       </c>
       <c r="N22">
-        <v>0.9914576915302538</v>
+        <v>1.009530053156474</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9332796703686727</v>
+        <v>1.0099857987146</v>
       </c>
       <c r="D23">
-        <v>0.9667259796796969</v>
+        <v>1.017635046499837</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.8922775097560552</v>
+        <v>1.005329833588709</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021815241121011</v>
+        <v>1.025141605596475</v>
       </c>
       <c r="J23">
-        <v>0.9665141975146267</v>
+        <v>1.01688299293072</v>
       </c>
       <c r="K23">
-        <v>0.982657856785133</v>
+        <v>1.021346855231878</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.909962967817602</v>
+        <v>1.009090815029372</v>
       </c>
       <c r="N23">
-        <v>0.9923899737909219</v>
+        <v>1.009664191862722</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9470739816172323</v>
+        <v>1.012091971992022</v>
       </c>
       <c r="D24">
-        <v>0.9771890861980803</v>
+        <v>1.019232848400503</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9119459282072512</v>
+        <v>1.008411533012014</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026440547253422</v>
+        <v>1.025647620261847</v>
       </c>
       <c r="J24">
-        <v>0.9767734295468314</v>
+        <v>1.01844676137394</v>
       </c>
       <c r="K24">
-        <v>0.9916289896960472</v>
+        <v>1.022662483752709</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442451</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.927718514386414</v>
+        <v>1.011880779374433</v>
       </c>
       <c r="N24">
-        <v>0.9958670043541705</v>
+        <v>1.010189425327675</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9617950141273149</v>
+        <v>1.01452196831937</v>
       </c>
       <c r="D25">
-        <v>0.988377554491778</v>
+        <v>1.021073565690156</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717734</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.932743480312319</v>
+        <v>1.011969703825315</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031298184330142</v>
+        <v>1.026220628111268</v>
       </c>
       <c r="J25">
-        <v>0.9876802701704311</v>
+        <v>1.020245989694683</v>
       </c>
       <c r="K25">
-        <v>1.001159013814403</v>
+        <v>1.024173106746793</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005612</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9464840507466677</v>
+        <v>1.015099057761346</v>
       </c>
       <c r="N25">
-        <v>0.9995632516837742</v>
+        <v>1.010793130469202</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_183/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016449202858267</v>
+        <v>0.9726893492872755</v>
       </c>
       <c r="D2">
-        <v>1.022531173563231</v>
+        <v>0.9966672733715543</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.014794091505186</v>
+        <v>0.9480341024379716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026666337893759</v>
+        <v>1.034826946686815</v>
       </c>
       <c r="J2">
-        <v>1.021668949432451</v>
+        <v>0.9957187729923694</v>
       </c>
       <c r="K2">
-        <v>1.025365280519094</v>
+        <v>1.008173234471639</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.017651177085586</v>
+        <v>0.9602682360367549</v>
       </c>
       <c r="N2">
-        <v>1.011270085431978</v>
+        <v>1.002286499320358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017842430221044</v>
+        <v>0.9801824191503554</v>
       </c>
       <c r="D3">
-        <v>1.02358355699787</v>
+        <v>1.002371093480205</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.01683739800815</v>
+        <v>0.9585121361496394</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026983458838593</v>
+        <v>1.037214151840487</v>
       </c>
       <c r="J3">
-        <v>1.02269529810395</v>
+        <v>1.001228308072805</v>
       </c>
       <c r="K3">
-        <v>1.026223678847742</v>
+        <v>1.012973725356515</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.019496072775336</v>
+        <v>0.9697049051596498</v>
       </c>
       <c r="N3">
-        <v>1.01161381095242</v>
+        <v>1.004152152599931</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018741182803464</v>
+        <v>0.9848581247670858</v>
       </c>
       <c r="D4">
-        <v>1.024261804396752</v>
+        <v>1.005930339720297</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.018156249193296</v>
+        <v>0.9650376179183801</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027185667392901</v>
+        <v>1.038684820005583</v>
       </c>
       <c r="J4">
-        <v>1.023356301799418</v>
+        <v>1.004657255572432</v>
       </c>
       <c r="K4">
-        <v>1.026775820780073</v>
+        <v>1.01595771384117</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.020686192550293</v>
+        <v>0.9755771638426762</v>
       </c>
       <c r="N4">
-        <v>1.011835046414615</v>
+        <v>1.00531279652478</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019118367943862</v>
+        <v>0.9867850724292881</v>
       </c>
       <c r="D5">
-        <v>1.024546296128732</v>
+        <v>1.007397049583209</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.018709923295942</v>
+        <v>0.967724461685575</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02726996278961</v>
+        <v>1.039286282003115</v>
       </c>
       <c r="J5">
-        <v>1.023633450367238</v>
+        <v>1.006068206156197</v>
       </c>
       <c r="K5">
-        <v>1.027007157574632</v>
+        <v>1.017184629475192</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.021185663153862</v>
+        <v>0.9779938564748355</v>
       </c>
       <c r="N5">
-        <v>1.01192777442281</v>
+        <v>1.005790254831256</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01918166113436</v>
+        <v>0.9871064169170805</v>
       </c>
       <c r="D6">
-        <v>1.024594025996272</v>
+        <v>1.007641632241726</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.018802842989918</v>
+        <v>0.9681724035762649</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027284074620113</v>
+        <v>1.039386309301693</v>
       </c>
       <c r="J6">
-        <v>1.023679941814261</v>
+        <v>1.006303372088369</v>
       </c>
       <c r="K6">
-        <v>1.027045954262631</v>
+        <v>1.017389064786654</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.021269476813427</v>
+        <v>0.9783966879460316</v>
       </c>
       <c r="N6">
-        <v>1.011943327555966</v>
+        <v>1.005869826014028</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018746225313369</v>
+        <v>0.9848840215741983</v>
       </c>
       <c r="D7">
-        <v>1.024265608309705</v>
+        <v>1.005950051917675</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.018163650418267</v>
+        <v>0.9650737360193301</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027186796550778</v>
+        <v>1.03869292167452</v>
       </c>
       <c r="J7">
-        <v>1.023360007960124</v>
+        <v>1.004676226428136</v>
       </c>
       <c r="K7">
-        <v>1.026778914985484</v>
+        <v>1.015974214079996</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.020692869841063</v>
+        <v>0.9756096552099496</v>
       </c>
       <c r="N7">
-        <v>1.011836286545376</v>
+        <v>1.005319216677712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016920627817269</v>
+        <v>0.975259137842143</v>
       </c>
       <c r="D8">
-        <v>1.022887397590317</v>
+        <v>0.9986233354008598</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.015485333011178</v>
+        <v>0.9516307537665051</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026774131125558</v>
+        <v>1.035649619508433</v>
       </c>
       <c r="J8">
-        <v>1.022016457938381</v>
+        <v>0.9976101993439962</v>
       </c>
       <c r="K8">
-        <v>1.025656067103517</v>
+        <v>1.009821986831467</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.018275435294629</v>
+        <v>0.9635083840240799</v>
       </c>
       <c r="N8">
-        <v>1.011386494565567</v>
+        <v>1.002927072390716</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0136821119093</v>
+        <v>0.9568389242168922</v>
       </c>
       <c r="D9">
-        <v>1.020437724434812</v>
+        <v>0.9846086910114555</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.01073957208988</v>
+        <v>0.9257609293235753</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02602393928668</v>
+        <v>1.029673166636706</v>
       </c>
       <c r="J9">
-        <v>1.019624761564318</v>
+        <v>0.9840136065988576</v>
       </c>
       <c r="K9">
-        <v>1.023651918332633</v>
+        <v>0.9979565169931972</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.013986816149685</v>
+        <v>0.9401854366114434</v>
       </c>
       <c r="N9">
-        <v>1.010584763527804</v>
+        <v>0.9983207523520101</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011507954971146</v>
+        <v>0.9433528732980608</v>
       </c>
       <c r="D10">
-        <v>1.018790009931372</v>
+        <v>0.9743642909105655</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.00755681684498</v>
+        <v>0.9066591683574056</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025508155898012</v>
+        <v>1.025199067715936</v>
       </c>
       <c r="J10">
-        <v>1.018013536937844</v>
+        <v>0.9740093611829088</v>
       </c>
       <c r="K10">
-        <v>1.022298246128533</v>
+        <v>0.9892123636618204</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.011107215723856</v>
+        <v>0.9229463848037706</v>
       </c>
       <c r="N10">
-        <v>1.010043963417883</v>
+        <v>0.9949301946529683</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01056278505421</v>
+        <v>0.937164483308319</v>
       </c>
       <c r="D11">
-        <v>1.01807297355176</v>
+        <v>0.9696701851724806</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.006173874866675</v>
+        <v>0.8978366865099345</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025281062397113</v>
+        <v>1.02312399572669</v>
       </c>
       <c r="J11">
-        <v>1.017311771460966</v>
+        <v>0.9694068822823094</v>
       </c>
       <c r="K11">
-        <v>1.021707833178488</v>
+        <v>0.9851876764039832</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.009855188781436</v>
+        <v>0.9149818301795749</v>
       </c>
       <c r="N11">
-        <v>1.009808255930911</v>
+        <v>0.9933703208711611</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010211131619987</v>
+        <v>0.9348068472077508</v>
       </c>
       <c r="D12">
-        <v>1.017806090337009</v>
+        <v>0.9678831427217889</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.005659444400562</v>
+        <v>0.8944649001168722</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02519614188865</v>
+        <v>1.022330264456262</v>
       </c>
       <c r="J12">
-        <v>1.017050479547869</v>
+        <v>0.9676516606274157</v>
       </c>
       <c r="K12">
-        <v>1.021487879009612</v>
+        <v>0.9836526491217782</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.009389335243618</v>
+        <v>0.9119377681719752</v>
       </c>
       <c r="N12">
-        <v>1.009720469383473</v>
+        <v>0.9927754607678341</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010286588708866</v>
+        <v>0.935315357197848</v>
       </c>
       <c r="D13">
-        <v>1.017863362444181</v>
+        <v>0.9682685195876263</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.005769825563486</v>
+        <v>0.8951926646438606</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02521438338165</v>
+        <v>1.022501602386058</v>
       </c>
       <c r="J13">
-        <v>1.01710655599023</v>
+        <v>0.9680303186425403</v>
       </c>
       <c r="K13">
-        <v>1.021535089400099</v>
+        <v>0.9839838087227161</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.009489298749784</v>
+        <v>0.912594800330583</v>
       </c>
       <c r="N13">
-        <v>1.009739310551623</v>
+        <v>0.9929037899396593</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010533729079375</v>
+        <v>0.9369708463674535</v>
       </c>
       <c r="D14">
-        <v>1.018050924047757</v>
+        <v>0.9695233839376455</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.006131367211374</v>
+        <v>0.8975599836656374</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025274054446787</v>
+        <v>1.023058868581186</v>
       </c>
       <c r="J14">
-        <v>1.017290185796311</v>
+        <v>0.9692627588832574</v>
       </c>
       <c r="K14">
-        <v>1.021689664973846</v>
+        <v>0.9850616357298031</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.00981669753202</v>
+        <v>0.9147320236755038</v>
       </c>
       <c r="N14">
-        <v>1.009801004266275</v>
+        <v>0.9933214756076979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010685923815969</v>
+        <v>0.9379828125841396</v>
       </c>
       <c r="D15">
-        <v>1.018166414607523</v>
+        <v>0.9702906367213697</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.00635402558339</v>
+        <v>0.8990056170593408</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025310744402493</v>
+        <v>1.023399101727777</v>
       </c>
       <c r="J15">
-        <v>1.017403243070246</v>
+        <v>0.9700158900291024</v>
       </c>
       <c r="K15">
-        <v>1.021784817914008</v>
+        <v>0.9857202683692123</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.010018312702417</v>
+        <v>0.9160371320567717</v>
       </c>
       <c r="N15">
-        <v>1.009838984654447</v>
+        <v>0.9935767223706135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011570602806105</v>
+        <v>0.943755692310978</v>
       </c>
       <c r="D16">
-        <v>1.018837521450851</v>
+        <v>0.9746700054843752</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.007648495154472</v>
+        <v>0.9072321112007797</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025523147908403</v>
+        <v>1.025333697474829</v>
       </c>
       <c r="J16">
-        <v>1.01806002369952</v>
+        <v>0.9743087057765284</v>
       </c>
       <c r="K16">
-        <v>1.022337339383393</v>
+        <v>0.9894741000396318</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.011190198391015</v>
+        <v>0.923463579406083</v>
       </c>
       <c r="N16">
-        <v>1.010059573873749</v>
+        <v>0.9950316499243167</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012124526978125</v>
+        <v>0.9472791950887454</v>
       </c>
       <c r="D17">
-        <v>1.019257528697708</v>
+        <v>0.977344914199637</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.008459182365839</v>
+        <v>0.9122371075198105</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025655374942263</v>
+        <v>1.026508867243777</v>
       </c>
       <c r="J17">
-        <v>1.018470901722414</v>
+        <v>0.9769257857244142</v>
       </c>
       <c r="K17">
-        <v>1.022682774382972</v>
+        <v>0.9917621820768917</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.011923899070446</v>
+        <v>0.927981333465981</v>
       </c>
       <c r="N17">
-        <v>1.010197529719798</v>
+        <v>0.9959186412927423</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012447261032195</v>
+        <v>0.9493012398013425</v>
       </c>
       <c r="D18">
-        <v>1.01950216840775</v>
+        <v>0.9788805844952844</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.008931582230535</v>
+        <v>0.9151041638815508</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025732138591392</v>
+        <v>1.027181205010996</v>
       </c>
       <c r="J18">
-        <v>1.018710165523831</v>
+        <v>0.9784265606890589</v>
       </c>
       <c r="K18">
-        <v>1.022883849904875</v>
+        <v>0.9930741041674377</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.012351359778147</v>
+        <v>0.9305690413998738</v>
       </c>
       <c r="N18">
-        <v>1.010277848912811</v>
+        <v>0.9964272845841553</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012557244225661</v>
+        <v>0.9499852617219822</v>
       </c>
       <c r="D19">
-        <v>1.019585526228965</v>
+        <v>0.9794001704121699</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.009092581055447</v>
+        <v>0.9160732126570327</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025758251693838</v>
+        <v>1.027408291657528</v>
       </c>
       <c r="J19">
-        <v>1.018791681694611</v>
+        <v>0.9789340601557627</v>
       </c>
       <c r="K19">
-        <v>1.022952342008016</v>
+        <v>0.9935177060447008</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.012497029639428</v>
+        <v>0.9314436265613841</v>
       </c>
       <c r="N19">
-        <v>1.010305210657848</v>
+        <v>0.9965992848874966</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012065133539757</v>
+        <v>0.9469046296420377</v>
       </c>
       <c r="D20">
-        <v>1.019212501475963</v>
+        <v>0.9770604929083579</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.008372251087716</v>
+        <v>0.911705603964484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025641225716924</v>
+        <v>1.02638415460639</v>
       </c>
       <c r="J20">
-        <v>1.018426859264225</v>
+        <v>0.9766476917063074</v>
       </c>
       <c r="K20">
-        <v>1.022645755031794</v>
+        <v>0.9915190664375788</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.011845231241175</v>
+        <v>0.9275015958293692</v>
       </c>
       <c r="N20">
-        <v>1.010182743707503</v>
+        <v>0.9958243889348281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010460968380866</v>
+        <v>0.9364850337338515</v>
       </c>
       <c r="D21">
-        <v>1.017995706914544</v>
+        <v>0.9691550986533604</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.006024922953528</v>
+        <v>0.8968655901410258</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025256498510532</v>
+        <v>1.022895421619758</v>
       </c>
       <c r="J21">
-        <v>1.017236128726896</v>
+        <v>0.968901141330898</v>
       </c>
       <c r="K21">
-        <v>1.0216441642862</v>
+        <v>0.9847453872367569</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.009720308879404</v>
+        <v>0.9141051254751</v>
       </c>
       <c r="N21">
-        <v>1.009782843499347</v>
+        <v>0.9931989192136084</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009449031580144</v>
+        <v>0.9295882552032504</v>
       </c>
       <c r="D22">
-        <v>1.01722750836108</v>
+        <v>0.963930320223594</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.004544746076026</v>
+        <v>0.8869791687495157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025011317895678</v>
+        <v>1.020567634941209</v>
       </c>
       <c r="J22">
-        <v>1.016483848343658</v>
+        <v>0.9637631836550467</v>
       </c>
       <c r="K22">
-        <v>1.021010668344455</v>
+        <v>0.9802518661515119</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.008379674897886</v>
+        <v>0.9051795908483733</v>
       </c>
       <c r="N22">
-        <v>1.009530053156474</v>
+        <v>0.9914576915302538</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0099857987146</v>
+        <v>0.9332796703686725</v>
       </c>
       <c r="D23">
-        <v>1.017635046499837</v>
+        <v>0.9667259796796968</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.005329833588709</v>
+        <v>0.8922775097560551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025141605596475</v>
+        <v>1.02181524112101</v>
       </c>
       <c r="J23">
-        <v>1.01688299293072</v>
+        <v>0.9665141975146265</v>
       </c>
       <c r="K23">
-        <v>1.021346855231878</v>
+        <v>0.9826578567851327</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.009090815029372</v>
+        <v>0.9099629678176018</v>
       </c>
       <c r="N23">
-        <v>1.009664191862722</v>
+        <v>0.9923899737909218</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012091971992022</v>
+        <v>0.9470739816172333</v>
       </c>
       <c r="D24">
-        <v>1.019232848400503</v>
+        <v>0.9771890861980812</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>1.008411533012014</v>
+        <v>0.9119459282072518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025647620261847</v>
+        <v>1.026440547253422</v>
       </c>
       <c r="J24">
-        <v>1.01844676137394</v>
+        <v>0.9767734295468322</v>
       </c>
       <c r="K24">
-        <v>1.022662483752709</v>
+        <v>0.991628989696048</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>1.011880779374433</v>
+        <v>0.9277185143864145</v>
       </c>
       <c r="N24">
-        <v>1.010189425327675</v>
+        <v>0.9958670043541706</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01452196831937</v>
+        <v>0.9617950141273147</v>
       </c>
       <c r="D25">
-        <v>1.021073565690156</v>
+        <v>0.9883775544917778</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717737</v>
       </c>
       <c r="F25">
-        <v>1.011969703825315</v>
+        <v>0.9327434803123189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026220628111268</v>
+        <v>1.031298184330142</v>
       </c>
       <c r="J25">
-        <v>1.020245989694683</v>
+        <v>0.9876802701704309</v>
       </c>
       <c r="K25">
-        <v>1.024173106746793</v>
+        <v>1.001159013814403</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005615</v>
       </c>
       <c r="M25">
-        <v>1.015099057761346</v>
+        <v>0.9464840507466676</v>
       </c>
       <c r="N25">
-        <v>1.010793130469202</v>
+        <v>0.9995632516837742</v>
       </c>
     </row>
   </sheetData>
